--- a/lowe/edd/data/SCRZ$HWS.xlsx
+++ b/lowe/edd/data/SCRZ$HWS.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13950" windowHeight="6360"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1394,14 +1394,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JH55"/>
+  <dimension ref="A1:JI55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.140625" customWidth="1"/>
     <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
@@ -1411,12 +1411,12 @@
     <col min="9" max="114" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
-        <v>44456.697581018518</v>
+        <v>44491.610081018516</v>
       </c>
     </row>
-    <row r="2" spans="1:268" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:269" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1426,7 +1426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:268" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:269" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1436,7 +1436,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1444,12 +1444,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:269" x14ac:dyDescent="0.2">
       <c r="G5" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -1462,7 +1462,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
@@ -2264,11 +2264,14 @@
       <c r="JG8" s="8">
         <v>44378</v>
       </c>
-      <c r="JH8" s="9">
+      <c r="JH8" s="8">
         <v>44409</v>
       </c>
+      <c r="JI8" s="9">
+        <v>44440</v>
+      </c>
     </row>
-    <row r="9" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -3069,10 +3072,13 @@
         <v>135300</v>
       </c>
       <c r="JH9" s="11">
-        <v>134400</v>
+        <v>135000</v>
+      </c>
+      <c r="JI9" s="11">
+        <v>134200</v>
       </c>
     </row>
-    <row r="10" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>2</v>
       </c>
@@ -3873,10 +3879,13 @@
         <v>126400</v>
       </c>
       <c r="JH10" s="11">
-        <v>126000</v>
+        <v>126600</v>
+      </c>
+      <c r="JI10" s="11">
+        <v>127100</v>
       </c>
     </row>
-    <row r="11" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>3</v>
       </c>
@@ -4677,10 +4686,13 @@
         <v>8900</v>
       </c>
       <c r="JH11" s="11">
-        <v>8500</v>
+        <v>8400</v>
+      </c>
+      <c r="JI11" s="11">
+        <v>7200</v>
       </c>
     </row>
-    <row r="12" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>4</v>
       </c>
@@ -5481,10 +5493,13 @@
         <v>6.6000000000000003E-2</v>
       </c>
       <c r="JH12" s="12">
-        <v>6.3E-2</v>
+        <v>6.2E-2</v>
+      </c>
+      <c r="JI12" s="12">
+        <v>5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>8</v>
       </c>
@@ -6285,10 +6300,13 @@
         <v>104400</v>
       </c>
       <c r="JH13" s="11">
+        <v>105800</v>
+      </c>
+      <c r="JI13" s="11">
         <v>105100</v>
       </c>
     </row>
-    <row r="14" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>9</v>
       </c>
@@ -7091,8 +7109,11 @@
       <c r="JH14" s="11">
         <v>12200</v>
       </c>
+      <c r="JI14" s="11">
+        <v>12000</v>
+      </c>
     </row>
-    <row r="15" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>10</v>
       </c>
@@ -7893,10 +7914,13 @@
         <v>92100</v>
       </c>
       <c r="JH15" s="11">
-        <v>92900</v>
+        <v>93600</v>
+      </c>
+      <c r="JI15" s="11">
+        <v>93100</v>
       </c>
     </row>
-    <row r="16" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>11</v>
       </c>
@@ -8697,10 +8721,13 @@
         <v>74500</v>
       </c>
       <c r="JH16" s="11">
-        <v>74800</v>
+        <v>74900</v>
+      </c>
+      <c r="JI16" s="11">
+        <v>74100</v>
       </c>
     </row>
-    <row r="17" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>12</v>
       </c>
@@ -9501,10 +9528,13 @@
         <v>11800</v>
       </c>
       <c r="JH17" s="11">
+        <v>11700</v>
+      </c>
+      <c r="JI17" s="11">
         <v>11600</v>
       </c>
     </row>
-    <row r="18" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>13</v>
       </c>
@@ -10305,10 +10335,13 @@
         <v>4700</v>
       </c>
       <c r="JH18" s="11">
-        <v>4600</v>
+        <v>4700</v>
+      </c>
+      <c r="JI18" s="11">
+        <v>4700</v>
       </c>
     </row>
-    <row r="19" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>16</v>
       </c>
@@ -11111,8 +11144,11 @@
       <c r="JH19" s="11">
         <v>7000</v>
       </c>
+      <c r="JI19" s="11">
+        <v>6900</v>
+      </c>
     </row>
-    <row r="20" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>17</v>
       </c>
@@ -11913,10 +11949,13 @@
         <v>3800</v>
       </c>
       <c r="JH20" s="11">
-        <v>3700</v>
+        <v>3600</v>
+      </c>
+      <c r="JI20" s="11">
+        <v>3500</v>
       </c>
     </row>
-    <row r="21" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -12717,10 +12756,13 @@
         <v>3300</v>
       </c>
       <c r="JH21" s="11">
-        <v>3300</v>
+        <v>3400</v>
+      </c>
+      <c r="JI21" s="11">
+        <v>3400</v>
       </c>
     </row>
-    <row r="22" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>23</v>
       </c>
@@ -13521,10 +13563,13 @@
         <v>80300</v>
       </c>
       <c r="JH22" s="11">
-        <v>81300</v>
+        <v>81900</v>
+      </c>
+      <c r="JI22" s="11">
+        <v>81500</v>
       </c>
     </row>
-    <row r="23" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>24</v>
       </c>
@@ -14327,8 +14372,11 @@
       <c r="JH23" s="11">
         <v>63200</v>
       </c>
+      <c r="JI23" s="11">
+        <v>62500</v>
+      </c>
     </row>
-    <row r="24" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>25</v>
       </c>
@@ -15131,8 +15179,11 @@
       <c r="JH24" s="11">
         <v>15600</v>
       </c>
+      <c r="JI24" s="11">
+        <v>15500</v>
+      </c>
     </row>
-    <row r="25" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>26</v>
       </c>
@@ -15935,8 +15986,11 @@
       <c r="JH25" s="11">
         <v>3400</v>
       </c>
+      <c r="JI25" s="11">
+        <v>3400</v>
+      </c>
     </row>
-    <row r="26" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>27</v>
       </c>
@@ -16739,8 +16793,11 @@
       <c r="JH26" s="11">
         <v>10500</v>
       </c>
+      <c r="JI26" s="11">
+        <v>10400</v>
+      </c>
     </row>
-    <row r="27" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>31</v>
       </c>
@@ -17543,8 +17600,11 @@
       <c r="JH27" s="11">
         <v>1700</v>
       </c>
+      <c r="JI27" s="11">
+        <v>1700</v>
+      </c>
     </row>
-    <row r="28" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>32</v>
       </c>
@@ -18347,8 +18407,11 @@
       <c r="JH28" s="11">
         <v>500</v>
       </c>
+      <c r="JI28" s="11">
+        <v>500</v>
+      </c>
     </row>
-    <row r="29" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>33</v>
       </c>
@@ -19151,8 +19214,11 @@
       <c r="JH29" s="11">
         <v>3100</v>
       </c>
+      <c r="JI29" s="11">
+        <v>3100</v>
+      </c>
     </row>
-    <row r="30" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>34</v>
       </c>
@@ -19955,8 +20021,11 @@
       <c r="JH30" s="11">
         <v>1900</v>
       </c>
+      <c r="JI30" s="11">
+        <v>1900</v>
+      </c>
     </row>
-    <row r="31" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>35</v>
       </c>
@@ -20759,8 +20828,11 @@
       <c r="JH31" s="11">
         <v>1200</v>
       </c>
+      <c r="JI31" s="11">
+        <v>1200</v>
+      </c>
     </row>
-    <row r="32" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>36</v>
       </c>
@@ -21561,10 +21633,13 @@
         <v>10500</v>
       </c>
       <c r="JH32" s="11">
-        <v>10600</v>
+        <v>10500</v>
+      </c>
+      <c r="JI32" s="11">
+        <v>10400</v>
       </c>
     </row>
-    <row r="33" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>37</v>
       </c>
@@ -22367,8 +22442,11 @@
       <c r="JH33" s="11">
         <v>17100</v>
       </c>
+      <c r="JI33" s="11">
+        <v>17300</v>
+      </c>
     </row>
-    <row r="34" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>38</v>
       </c>
@@ -23171,8 +23249,11 @@
       <c r="JH34" s="11">
         <v>11500</v>
       </c>
+      <c r="JI34" s="11">
+        <v>11000</v>
+      </c>
     </row>
-    <row r="35" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>39</v>
       </c>
@@ -23975,8 +24056,11 @@
       <c r="JH35" s="11">
         <v>1800</v>
       </c>
+      <c r="JI35" s="11">
+        <v>1600</v>
+      </c>
     </row>
-    <row r="36" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>40</v>
       </c>
@@ -24779,8 +24863,11 @@
       <c r="JH36" s="11">
         <v>9700</v>
       </c>
+      <c r="JI36" s="11">
+        <v>9400</v>
+      </c>
     </row>
-    <row r="37" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>43</v>
       </c>
@@ -25581,10 +25668,13 @@
         <v>5000</v>
       </c>
       <c r="JH37" s="11">
-        <v>4800</v>
+        <v>4900</v>
+      </c>
+      <c r="JI37" s="11">
+        <v>4700</v>
       </c>
     </row>
-    <row r="38" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>44</v>
       </c>
@@ -26385,10 +26475,13 @@
         <v>17600</v>
       </c>
       <c r="JH38" s="11">
-        <v>18100</v>
+        <v>18700</v>
+      </c>
+      <c r="JI38" s="11">
+        <v>19000</v>
       </c>
     </row>
-    <row r="39" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>45</v>
       </c>
@@ -27191,8 +27284,11 @@
       <c r="JH39" s="11">
         <v>600</v>
       </c>
+      <c r="JI39" s="11">
+        <v>600</v>
+      </c>
     </row>
-    <row r="40" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>46</v>
       </c>
@@ -27993,10 +28089,13 @@
         <v>17000</v>
       </c>
       <c r="JH40" s="11">
-        <v>17500</v>
+        <v>18100</v>
+      </c>
+      <c r="JI40" s="11">
+        <v>18400</v>
       </c>
     </row>
-    <row r="41" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>47</v>
       </c>
@@ -28797,10 +28896,13 @@
         <v>6500</v>
       </c>
       <c r="JH41" s="11">
+        <v>6500</v>
+      </c>
+      <c r="JI41" s="11">
         <v>6400</v>
       </c>
     </row>
-    <row r="42" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>48</v>
       </c>
@@ -29601,10 +29703,13 @@
         <v>5800</v>
       </c>
       <c r="JH42" s="11">
+        <v>5800</v>
+      </c>
+      <c r="JI42" s="11">
         <v>5700</v>
       </c>
     </row>
-    <row r="43" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>49</v>
       </c>
@@ -30407,8 +30512,11 @@
       <c r="JH43" s="11">
         <v>700</v>
       </c>
+      <c r="JI43" s="11">
+        <v>700</v>
+      </c>
     </row>
-    <row r="44" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>50</v>
       </c>
@@ -31209,10 +31317,13 @@
         <v>10500</v>
       </c>
       <c r="JH44" s="11">
-        <v>11100</v>
+        <v>11600</v>
+      </c>
+      <c r="JI44" s="11">
+        <v>12000</v>
       </c>
     </row>
-    <row r="45" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>52</v>
       </c>
@@ -32015,8 +32126,11 @@
       <c r="JH45" s="11">
         <v>5800</v>
       </c>
+      <c r="JI45" s="11">
+        <v>5800</v>
+      </c>
     </row>
-    <row r="46" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>55</v>
       </c>
@@ -32819,8 +32933,11 @@
       <c r="JH46" s="11">
         <v>1100</v>
       </c>
+      <c r="JI46" s="11">
+        <v>1000</v>
+      </c>
     </row>
-    <row r="48" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A48" s="15" t="s">
         <v>117</v>
       </c>

--- a/lowe/edd/data/SCRZ$HWS.xlsx
+++ b/lowe/edd/data/SCRZ$HWS.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\LMIDATA AUTOCES\Published Data NAICS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\LMIDATA AUTOCES\Published Data NAICS\Jenny\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13950" windowHeight="6360"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1394,7 +1394,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JI55"/>
+  <dimension ref="A1:JJ55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1411,12 +1411,12 @@
     <col min="9" max="114" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
-        <v>44491.610081018516</v>
+        <v>44519.49428240741</v>
       </c>
     </row>
-    <row r="2" spans="1:269" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:270" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1426,7 +1426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:269" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:270" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1436,7 +1436,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1444,12 +1444,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:270" x14ac:dyDescent="0.2">
       <c r="G5" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -1462,7 +1462,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
@@ -2267,11 +2267,14 @@
       <c r="JH8" s="8">
         <v>44409</v>
       </c>
-      <c r="JI8" s="9">
+      <c r="JI8" s="8">
         <v>44440</v>
       </c>
+      <c r="JJ8" s="9">
+        <v>44470</v>
+      </c>
     </row>
-    <row r="9" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -3075,10 +3078,13 @@
         <v>135000</v>
       </c>
       <c r="JI9" s="11">
+        <v>134000</v>
+      </c>
+      <c r="JJ9" s="11">
         <v>134200</v>
       </c>
     </row>
-    <row r="10" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>2</v>
       </c>
@@ -3882,10 +3888,13 @@
         <v>126600</v>
       </c>
       <c r="JI10" s="11">
-        <v>127100</v>
+        <v>127000</v>
+      </c>
+      <c r="JJ10" s="11">
+        <v>127300</v>
       </c>
     </row>
-    <row r="11" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>3</v>
       </c>
@@ -4689,10 +4698,13 @@
         <v>8400</v>
       </c>
       <c r="JI11" s="11">
-        <v>7200</v>
+        <v>7100</v>
+      </c>
+      <c r="JJ11" s="11">
+        <v>6900</v>
       </c>
     </row>
-    <row r="12" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>4</v>
       </c>
@@ -5496,10 +5508,13 @@
         <v>6.2E-2</v>
       </c>
       <c r="JI12" s="12">
-        <v>5.3999999999999999E-2</v>
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="JJ12" s="12">
+        <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>8</v>
       </c>
@@ -6303,10 +6318,13 @@
         <v>105800</v>
       </c>
       <c r="JI13" s="11">
+        <v>104900</v>
+      </c>
+      <c r="JJ13" s="11">
         <v>105100</v>
       </c>
     </row>
-    <row r="14" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>9</v>
       </c>
@@ -7112,8 +7130,11 @@
       <c r="JI14" s="11">
         <v>12000</v>
       </c>
+      <c r="JJ14" s="11">
+        <v>11000</v>
+      </c>
     </row>
-    <row r="15" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>10</v>
       </c>
@@ -7917,10 +7938,13 @@
         <v>93600</v>
       </c>
       <c r="JI15" s="11">
-        <v>93100</v>
+        <v>92900</v>
+      </c>
+      <c r="JJ15" s="11">
+        <v>94100</v>
       </c>
     </row>
-    <row r="16" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>11</v>
       </c>
@@ -8724,10 +8748,13 @@
         <v>74900</v>
       </c>
       <c r="JI16" s="11">
+        <v>73900</v>
+      </c>
+      <c r="JJ16" s="11">
         <v>74100</v>
       </c>
     </row>
-    <row r="17" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>12</v>
       </c>
@@ -9533,8 +9560,11 @@
       <c r="JI17" s="11">
         <v>11600</v>
       </c>
+      <c r="JJ17" s="11">
+        <v>11600</v>
+      </c>
     </row>
-    <row r="18" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>13</v>
       </c>
@@ -10340,8 +10370,11 @@
       <c r="JI18" s="11">
         <v>4700</v>
       </c>
+      <c r="JJ18" s="11">
+        <v>4700</v>
+      </c>
     </row>
-    <row r="19" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>16</v>
       </c>
@@ -11147,8 +11180,11 @@
       <c r="JI19" s="11">
         <v>6900</v>
       </c>
+      <c r="JJ19" s="11">
+        <v>6900</v>
+      </c>
     </row>
-    <row r="20" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>17</v>
       </c>
@@ -11954,8 +11990,11 @@
       <c r="JI20" s="11">
         <v>3500</v>
       </c>
+      <c r="JJ20" s="11">
+        <v>3500</v>
+      </c>
     </row>
-    <row r="21" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -12761,8 +12800,11 @@
       <c r="JI21" s="11">
         <v>3400</v>
       </c>
+      <c r="JJ21" s="11">
+        <v>3400</v>
+      </c>
     </row>
-    <row r="22" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>23</v>
       </c>
@@ -13566,10 +13608,13 @@
         <v>81900</v>
       </c>
       <c r="JI22" s="11">
-        <v>81500</v>
+        <v>81300</v>
+      </c>
+      <c r="JJ22" s="11">
+        <v>82500</v>
       </c>
     </row>
-    <row r="23" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>24</v>
       </c>
@@ -14373,10 +14418,13 @@
         <v>63200</v>
       </c>
       <c r="JI23" s="11">
+        <v>62300</v>
+      </c>
+      <c r="JJ23" s="11">
         <v>62500</v>
       </c>
     </row>
-    <row r="24" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>25</v>
       </c>
@@ -15182,8 +15230,11 @@
       <c r="JI24" s="11">
         <v>15500</v>
       </c>
+      <c r="JJ24" s="11">
+        <v>15700</v>
+      </c>
     </row>
-    <row r="25" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>26</v>
       </c>
@@ -15989,8 +16040,11 @@
       <c r="JI25" s="11">
         <v>3400</v>
       </c>
+      <c r="JJ25" s="11">
+        <v>3400</v>
+      </c>
     </row>
-    <row r="26" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>27</v>
       </c>
@@ -16796,8 +16850,11 @@
       <c r="JI26" s="11">
         <v>10400</v>
       </c>
+      <c r="JJ26" s="11">
+        <v>10600</v>
+      </c>
     </row>
-    <row r="27" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>31</v>
       </c>
@@ -17603,8 +17660,11 @@
       <c r="JI27" s="11">
         <v>1700</v>
       </c>
+      <c r="JJ27" s="11">
+        <v>1700</v>
+      </c>
     </row>
-    <row r="28" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>32</v>
       </c>
@@ -18410,8 +18470,11 @@
       <c r="JI28" s="11">
         <v>500</v>
       </c>
+      <c r="JJ28" s="11">
+        <v>500</v>
+      </c>
     </row>
-    <row r="29" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>33</v>
       </c>
@@ -19217,8 +19280,11 @@
       <c r="JI29" s="11">
         <v>3100</v>
       </c>
+      <c r="JJ29" s="11">
+        <v>3100</v>
+      </c>
     </row>
-    <row r="30" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>34</v>
       </c>
@@ -20024,8 +20090,11 @@
       <c r="JI30" s="11">
         <v>1900</v>
       </c>
+      <c r="JJ30" s="11">
+        <v>1900</v>
+      </c>
     </row>
-    <row r="31" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>35</v>
       </c>
@@ -20831,8 +20900,11 @@
       <c r="JI31" s="11">
         <v>1200</v>
       </c>
+      <c r="JJ31" s="11">
+        <v>1200</v>
+      </c>
     </row>
-    <row r="32" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>36</v>
       </c>
@@ -21638,8 +21710,11 @@
       <c r="JI32" s="11">
         <v>10400</v>
       </c>
+      <c r="JJ32" s="11">
+        <v>10600</v>
+      </c>
     </row>
-    <row r="33" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>37</v>
       </c>
@@ -22445,8 +22520,11 @@
       <c r="JI33" s="11">
         <v>17300</v>
       </c>
+      <c r="JJ33" s="11">
+        <v>17400</v>
+      </c>
     </row>
-    <row r="34" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>38</v>
       </c>
@@ -23250,10 +23328,13 @@
         <v>11500</v>
       </c>
       <c r="JI34" s="11">
-        <v>11000</v>
+        <v>10800</v>
+      </c>
+      <c r="JJ34" s="11">
+        <v>10600</v>
       </c>
     </row>
-    <row r="35" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>39</v>
       </c>
@@ -24057,10 +24138,13 @@
         <v>1800</v>
       </c>
       <c r="JI35" s="11">
-        <v>1600</v>
+        <v>1400</v>
+      </c>
+      <c r="JJ35" s="11">
+        <v>1400</v>
       </c>
     </row>
-    <row r="36" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>40</v>
       </c>
@@ -24866,8 +24950,11 @@
       <c r="JI36" s="11">
         <v>9400</v>
       </c>
+      <c r="JJ36" s="11">
+        <v>9200</v>
+      </c>
     </row>
-    <row r="37" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>43</v>
       </c>
@@ -25673,8 +25760,11 @@
       <c r="JI37" s="11">
         <v>4700</v>
       </c>
+      <c r="JJ37" s="11">
+        <v>4600</v>
+      </c>
     </row>
-    <row r="38" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>44</v>
       </c>
@@ -26480,8 +26570,11 @@
       <c r="JI38" s="11">
         <v>19000</v>
       </c>
+      <c r="JJ38" s="11">
+        <v>20000</v>
+      </c>
     </row>
-    <row r="39" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>45</v>
       </c>
@@ -27287,8 +27380,11 @@
       <c r="JI39" s="11">
         <v>600</v>
       </c>
+      <c r="JJ39" s="11">
+        <v>600</v>
+      </c>
     </row>
-    <row r="40" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>46</v>
       </c>
@@ -28094,8 +28190,11 @@
       <c r="JI40" s="11">
         <v>18400</v>
       </c>
+      <c r="JJ40" s="11">
+        <v>19400</v>
+      </c>
     </row>
-    <row r="41" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>47</v>
       </c>
@@ -28901,8 +29000,11 @@
       <c r="JI41" s="11">
         <v>6400</v>
       </c>
+      <c r="JJ41" s="11">
+        <v>7000</v>
+      </c>
     </row>
-    <row r="42" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>48</v>
       </c>
@@ -29708,8 +29810,11 @@
       <c r="JI42" s="11">
         <v>5700</v>
       </c>
+      <c r="JJ42" s="11">
+        <v>6300</v>
+      </c>
     </row>
-    <row r="43" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>49</v>
       </c>
@@ -30515,8 +30620,11 @@
       <c r="JI43" s="11">
         <v>700</v>
       </c>
+      <c r="JJ43" s="11">
+        <v>700</v>
+      </c>
     </row>
-    <row r="44" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>50</v>
       </c>
@@ -31322,8 +31430,11 @@
       <c r="JI44" s="11">
         <v>12000</v>
       </c>
+      <c r="JJ44" s="11">
+        <v>12400</v>
+      </c>
     </row>
-    <row r="45" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>52</v>
       </c>
@@ -32129,8 +32240,11 @@
       <c r="JI45" s="11">
         <v>5800</v>
       </c>
+      <c r="JJ45" s="11">
+        <v>5700</v>
+      </c>
     </row>
-    <row r="46" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>55</v>
       </c>
@@ -32936,8 +33050,11 @@
       <c r="JI46" s="11">
         <v>1000</v>
       </c>
+      <c r="JJ46" s="11">
+        <v>1000</v>
+      </c>
     </row>
-    <row r="48" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A48" s="15" t="s">
         <v>117</v>
       </c>

--- a/lowe/edd/data/SCRZ$HWS.xlsx
+++ b/lowe/edd/data/SCRZ$HWS.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\LMIDATA AUTOCES\Published Data NAICS\Jenny\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\LMIDATA AUTOCES\Published Data NAICS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -284,13 +284,13 @@
     <t>70-710000</t>
   </si>
   <si>
-    <t xml:space="preserve">          Arts, Entertainment &amp; Recreation</t>
+    <t xml:space="preserve">        Arts, Entertainment &amp; Recreation</t>
   </si>
   <si>
     <t>70-720000</t>
   </si>
   <si>
-    <t xml:space="preserve">          Accommodation &amp; Food Services</t>
+    <t xml:space="preserve">        Accommodation &amp; Food Services</t>
   </si>
   <si>
     <t>811000-813000</t>
@@ -1394,7 +1394,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JJ55"/>
+  <dimension ref="A1:JL55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1411,12 +1411,12 @@
     <col min="9" max="114" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
-        <v>44519.49428240741</v>
+        <v>44582.472731481481</v>
       </c>
     </row>
-    <row r="2" spans="1:270" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:272" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1426,7 +1426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:270" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:272" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1436,7 +1436,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1444,12 +1444,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:272" x14ac:dyDescent="0.2">
       <c r="G5" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -1462,7 +1462,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
@@ -2270,11 +2270,17 @@
       <c r="JI8" s="8">
         <v>44440</v>
       </c>
-      <c r="JJ8" s="9">
+      <c r="JJ8" s="8">
         <v>44470</v>
       </c>
+      <c r="JK8" s="8">
+        <v>44501</v>
+      </c>
+      <c r="JL8" s="9">
+        <v>44531</v>
+      </c>
     </row>
-    <row r="9" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -3081,10 +3087,16 @@
         <v>134000</v>
       </c>
       <c r="JJ9" s="11">
-        <v>134200</v>
+        <v>134500</v>
+      </c>
+      <c r="JK9" s="11">
+        <v>132900</v>
+      </c>
+      <c r="JL9" s="11">
+        <v>131100</v>
       </c>
     </row>
-    <row r="10" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>2</v>
       </c>
@@ -3891,10 +3903,16 @@
         <v>127000</v>
       </c>
       <c r="JJ10" s="11">
-        <v>127300</v>
+        <v>127600</v>
+      </c>
+      <c r="JK10" s="11">
+        <v>126300</v>
+      </c>
+      <c r="JL10" s="11">
+        <v>124000</v>
       </c>
     </row>
-    <row r="11" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>3</v>
       </c>
@@ -4703,8 +4721,14 @@
       <c r="JJ11" s="11">
         <v>6900</v>
       </c>
+      <c r="JK11" s="11">
+        <v>6600</v>
+      </c>
+      <c r="JL11" s="11">
+        <v>7100</v>
+      </c>
     </row>
-    <row r="12" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>4</v>
       </c>
@@ -5511,10 +5535,16 @@
         <v>5.2999999999999999E-2</v>
       </c>
       <c r="JJ12" s="12">
-        <v>5.1999999999999998E-2</v>
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="JK12" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="JL12" s="12">
+        <v>5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>8</v>
       </c>
@@ -6321,10 +6351,16 @@
         <v>104900</v>
       </c>
       <c r="JJ13" s="11">
-        <v>105100</v>
+        <v>105500</v>
+      </c>
+      <c r="JK13" s="11">
+        <v>103000</v>
+      </c>
+      <c r="JL13" s="11">
+        <v>100400</v>
       </c>
     </row>
-    <row r="14" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>9</v>
       </c>
@@ -7133,8 +7169,14 @@
       <c r="JJ14" s="11">
         <v>11000</v>
       </c>
+      <c r="JK14" s="11">
+        <v>8400</v>
+      </c>
+      <c r="JL14" s="11">
+        <v>5800</v>
+      </c>
     </row>
-    <row r="15" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>10</v>
       </c>
@@ -7941,10 +7983,16 @@
         <v>92900</v>
       </c>
       <c r="JJ15" s="11">
-        <v>94100</v>
+        <v>94500</v>
+      </c>
+      <c r="JK15" s="11">
+        <v>94600</v>
+      </c>
+      <c r="JL15" s="11">
+        <v>94600</v>
       </c>
     </row>
-    <row r="16" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>11</v>
       </c>
@@ -8751,10 +8799,16 @@
         <v>73900</v>
       </c>
       <c r="JJ16" s="11">
+        <v>74300</v>
+      </c>
+      <c r="JK16" s="11">
         <v>74100</v>
       </c>
+      <c r="JL16" s="11">
+        <v>74000</v>
+      </c>
     </row>
-    <row r="17" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>12</v>
       </c>
@@ -9563,8 +9617,14 @@
       <c r="JJ17" s="11">
         <v>11600</v>
       </c>
+      <c r="JK17" s="11">
+        <v>11500</v>
+      </c>
+      <c r="JL17" s="11">
+        <v>11400</v>
+      </c>
     </row>
-    <row r="18" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>13</v>
       </c>
@@ -10373,8 +10433,14 @@
       <c r="JJ18" s="11">
         <v>4700</v>
       </c>
+      <c r="JK18" s="11">
+        <v>4600</v>
+      </c>
+      <c r="JL18" s="11">
+        <v>4500</v>
+      </c>
     </row>
-    <row r="19" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>16</v>
       </c>
@@ -11183,8 +11249,14 @@
       <c r="JJ19" s="11">
         <v>6900</v>
       </c>
+      <c r="JK19" s="11">
+        <v>6900</v>
+      </c>
+      <c r="JL19" s="11">
+        <v>6900</v>
+      </c>
     </row>
-    <row r="20" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>17</v>
       </c>
@@ -11993,8 +12065,14 @@
       <c r="JJ20" s="11">
         <v>3500</v>
       </c>
+      <c r="JK20" s="11">
+        <v>3500</v>
+      </c>
+      <c r="JL20" s="11">
+        <v>3600</v>
+      </c>
     </row>
-    <row r="21" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -12803,8 +12881,14 @@
       <c r="JJ21" s="11">
         <v>3400</v>
       </c>
+      <c r="JK21" s="11">
+        <v>3400</v>
+      </c>
+      <c r="JL21" s="11">
+        <v>3300</v>
+      </c>
     </row>
-    <row r="22" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>23</v>
       </c>
@@ -13611,10 +13695,16 @@
         <v>81300</v>
       </c>
       <c r="JJ22" s="11">
-        <v>82500</v>
+        <v>82900</v>
+      </c>
+      <c r="JK22" s="11">
+        <v>83100</v>
+      </c>
+      <c r="JL22" s="11">
+        <v>83200</v>
       </c>
     </row>
-    <row r="23" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>24</v>
       </c>
@@ -14421,10 +14511,16 @@
         <v>62300</v>
       </c>
       <c r="JJ23" s="11">
-        <v>62500</v>
+        <v>62700</v>
+      </c>
+      <c r="JK23" s="11">
+        <v>62600</v>
+      </c>
+      <c r="JL23" s="11">
+        <v>62600</v>
       </c>
     </row>
-    <row r="24" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>25</v>
       </c>
@@ -15231,10 +15327,16 @@
         <v>15500</v>
       </c>
       <c r="JJ24" s="11">
-        <v>15700</v>
+        <v>15800</v>
+      </c>
+      <c r="JK24" s="11">
+        <v>16300</v>
+      </c>
+      <c r="JL24" s="11">
+        <v>16300</v>
       </c>
     </row>
-    <row r="25" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>26</v>
       </c>
@@ -16041,10 +16143,16 @@
         <v>3400</v>
       </c>
       <c r="JJ25" s="11">
-        <v>3400</v>
+        <v>3500</v>
+      </c>
+      <c r="JK25" s="11">
+        <v>3500</v>
+      </c>
+      <c r="JL25" s="11">
+        <v>3500</v>
       </c>
     </row>
-    <row r="26" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>27</v>
       </c>
@@ -16853,8 +16961,14 @@
       <c r="JJ26" s="11">
         <v>10600</v>
       </c>
+      <c r="JK26" s="11">
+        <v>11000</v>
+      </c>
+      <c r="JL26" s="11">
+        <v>10900</v>
+      </c>
     </row>
-    <row r="27" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>31</v>
       </c>
@@ -17663,8 +17777,14 @@
       <c r="JJ27" s="11">
         <v>1700</v>
       </c>
+      <c r="JK27" s="11">
+        <v>1800</v>
+      </c>
+      <c r="JL27" s="11">
+        <v>1900</v>
+      </c>
     </row>
-    <row r="28" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>32</v>
       </c>
@@ -18473,8 +18593,14 @@
       <c r="JJ28" s="11">
         <v>500</v>
       </c>
+      <c r="JK28" s="11">
+        <v>500</v>
+      </c>
+      <c r="JL28" s="11">
+        <v>500</v>
+      </c>
     </row>
-    <row r="29" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>33</v>
       </c>
@@ -19283,8 +19409,14 @@
       <c r="JJ29" s="11">
         <v>3100</v>
       </c>
+      <c r="JK29" s="11">
+        <v>3100</v>
+      </c>
+      <c r="JL29" s="11">
+        <v>3100</v>
+      </c>
     </row>
-    <row r="30" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>34</v>
       </c>
@@ -20093,8 +20225,14 @@
       <c r="JJ30" s="11">
         <v>1900</v>
       </c>
+      <c r="JK30" s="11">
+        <v>1900</v>
+      </c>
+      <c r="JL30" s="11">
+        <v>1900</v>
+      </c>
     </row>
-    <row r="31" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>35</v>
       </c>
@@ -20903,8 +21041,14 @@
       <c r="JJ31" s="11">
         <v>1200</v>
       </c>
+      <c r="JK31" s="11">
+        <v>1200</v>
+      </c>
+      <c r="JL31" s="11">
+        <v>1200</v>
+      </c>
     </row>
-    <row r="32" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>36</v>
       </c>
@@ -21713,8 +21857,14 @@
       <c r="JJ32" s="11">
         <v>10600</v>
       </c>
+      <c r="JK32" s="11">
+        <v>10500</v>
+      </c>
+      <c r="JL32" s="11">
+        <v>10600</v>
+      </c>
     </row>
-    <row r="33" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>37</v>
       </c>
@@ -22521,10 +22671,16 @@
         <v>17300</v>
       </c>
       <c r="JJ33" s="11">
-        <v>17400</v>
+        <v>17500</v>
+      </c>
+      <c r="JK33" s="11">
+        <v>17500</v>
+      </c>
+      <c r="JL33" s="11">
+        <v>17900</v>
       </c>
     </row>
-    <row r="34" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>38</v>
       </c>
@@ -23333,8 +23489,14 @@
       <c r="JJ34" s="11">
         <v>10600</v>
       </c>
+      <c r="JK34" s="11">
+        <v>10100</v>
+      </c>
+      <c r="JL34" s="11">
+        <v>9600</v>
+      </c>
     </row>
-    <row r="35" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>39</v>
       </c>
@@ -24143,8 +24305,14 @@
       <c r="JJ35" s="11">
         <v>1400</v>
       </c>
+      <c r="JK35" s="11">
+        <v>1300</v>
+      </c>
+      <c r="JL35" s="11">
+        <v>1200</v>
+      </c>
     </row>
-    <row r="36" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>40</v>
       </c>
@@ -24953,8 +25121,14 @@
       <c r="JJ36" s="11">
         <v>9200</v>
       </c>
+      <c r="JK36" s="11">
+        <v>8800</v>
+      </c>
+      <c r="JL36" s="11">
+        <v>8400</v>
+      </c>
     </row>
-    <row r="37" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>43</v>
       </c>
@@ -25763,8 +25937,14 @@
       <c r="JJ37" s="11">
         <v>4600</v>
       </c>
+      <c r="JK37" s="11">
+        <v>4600</v>
+      </c>
+      <c r="JL37" s="11">
+        <v>4600</v>
+      </c>
     </row>
-    <row r="38" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>44</v>
       </c>
@@ -26571,10 +26751,16 @@
         <v>19000</v>
       </c>
       <c r="JJ38" s="11">
-        <v>20000</v>
+        <v>20200</v>
+      </c>
+      <c r="JK38" s="11">
+        <v>20500</v>
+      </c>
+      <c r="JL38" s="11">
+        <v>20600</v>
       </c>
     </row>
-    <row r="39" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>45</v>
       </c>
@@ -27383,8 +27569,14 @@
       <c r="JJ39" s="11">
         <v>600</v>
       </c>
+      <c r="JK39" s="11">
+        <v>600</v>
+      </c>
+      <c r="JL39" s="11">
+        <v>600</v>
+      </c>
     </row>
-    <row r="40" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>46</v>
       </c>
@@ -28191,10 +28383,16 @@
         <v>18400</v>
       </c>
       <c r="JJ40" s="11">
-        <v>19400</v>
+        <v>19600</v>
+      </c>
+      <c r="JK40" s="11">
+        <v>19900</v>
+      </c>
+      <c r="JL40" s="11">
+        <v>20000</v>
       </c>
     </row>
-    <row r="41" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>47</v>
       </c>
@@ -29001,10 +29199,16 @@
         <v>6400</v>
       </c>
       <c r="JJ41" s="11">
-        <v>7000</v>
+        <v>7200</v>
+      </c>
+      <c r="JK41" s="11">
+        <v>7200</v>
+      </c>
+      <c r="JL41" s="11">
+        <v>7200</v>
       </c>
     </row>
-    <row r="42" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>48</v>
       </c>
@@ -29811,10 +30015,16 @@
         <v>5700</v>
       </c>
       <c r="JJ42" s="11">
-        <v>6300</v>
+        <v>6500</v>
+      </c>
+      <c r="JK42" s="11">
+        <v>6500</v>
+      </c>
+      <c r="JL42" s="11">
+        <v>6600</v>
       </c>
     </row>
-    <row r="43" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>49</v>
       </c>
@@ -30623,8 +30833,14 @@
       <c r="JJ43" s="11">
         <v>700</v>
       </c>
+      <c r="JK43" s="11">
+        <v>700</v>
+      </c>
+      <c r="JL43" s="11">
+        <v>600</v>
+      </c>
     </row>
-    <row r="44" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>50</v>
       </c>
@@ -31433,8 +31649,14 @@
       <c r="JJ44" s="11">
         <v>12400</v>
       </c>
+      <c r="JK44" s="11">
+        <v>12700</v>
+      </c>
+      <c r="JL44" s="11">
+        <v>12800</v>
+      </c>
     </row>
-    <row r="45" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>52</v>
       </c>
@@ -32243,8 +32465,14 @@
       <c r="JJ45" s="11">
         <v>5700</v>
       </c>
+      <c r="JK45" s="11">
+        <v>5600</v>
+      </c>
+      <c r="JL45" s="11">
+        <v>5700</v>
+      </c>
     </row>
-    <row r="46" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>55</v>
       </c>
@@ -33053,8 +33281,14 @@
       <c r="JJ46" s="11">
         <v>1000</v>
       </c>
+      <c r="JK46" s="11">
+        <v>1000</v>
+      </c>
+      <c r="JL46" s="11">
+        <v>1100</v>
+      </c>
     </row>
-    <row r="48" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A48" s="15" t="s">
         <v>117</v>
       </c>
